--- a/ru/downloads/data-excel/9.2.2.xlsx
+++ b/ru/downloads/data-excel/9.2.2.xlsx
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:M17"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,7 +899,7 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25">
+    <row r="1" spans="1:14" ht="38.25">
       <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
@@ -950,7 +950,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -990,8 +990,11 @@
       <c r="M4" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
@@ -1031,8 +1034,11 @@
       <c r="M5" s="28">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="28">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1072,8 +1078,11 @@
       <c r="M6" s="27">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="27">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1113,8 +1122,11 @@
       <c r="M7" s="27">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="M8" s="27">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="27">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1195,8 +1210,11 @@
       <c r="M9" s="27">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -1236,8 +1254,11 @@
       <c r="M10" s="27">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="27">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1277,8 +1298,11 @@
       <c r="M11" s="27">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1318,8 +1342,11 @@
       <c r="M12" s="27">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="27">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1359,8 +1386,11 @@
       <c r="M13" s="27">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="26" customFormat="1">
+      <c r="N13" s="27">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="26" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1400,8 +1430,11 @@
       <c r="M14" s="30">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="30">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
@@ -1421,8 +1454,9 @@
       <c r="K15" s="30"/>
       <c r="L15" s="28"/>
       <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
@@ -1462,8 +1496,11 @@
       <c r="M16" s="30">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N16" s="30">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1">
       <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
@@ -1503,8 +1540,11 @@
       <c r="M17" s="34">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="24">
+      <c r="N17" s="34">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="24">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="B21" s="22"/>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/9.2.2.xlsx
+++ b/ru/downloads/data-excel/9.2.2.xlsx
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,7 +899,7 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25">
+    <row r="1" spans="1:15" ht="38.25">
       <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
@@ -950,7 +950,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -993,8 +993,11 @@
       <c r="N4" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
@@ -1037,8 +1040,11 @@
       <c r="N5" s="28">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="28">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1081,8 +1087,11 @@
       <c r="N6" s="27">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="27">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1125,8 +1134,11 @@
       <c r="N7" s="27">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="27">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1169,8 +1181,11 @@
       <c r="N8" s="27">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="27">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1213,8 +1228,11 @@
       <c r="N9" s="27">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="27">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -1257,8 +1275,11 @@
       <c r="N10" s="27">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1322,11 @@
       <c r="N11" s="27">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1345,8 +1369,11 @@
       <c r="N12" s="27">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="27">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1389,8 +1416,11 @@
       <c r="N13" s="27">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="26" customFormat="1">
+      <c r="O13" s="27">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="26" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1433,8 +1463,11 @@
       <c r="N14" s="30">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="30">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
@@ -1456,7 +1489,7 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
@@ -1499,8 +1532,11 @@
       <c r="N16" s="30">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+      <c r="O16" s="30">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
@@ -1543,8 +1579,11 @@
       <c r="N17" s="34">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="24">
+      <c r="O17" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="24">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -1555,7 +1594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="B21" s="22"/>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/9.2.2.xlsx
+++ b/ru/downloads/data-excel/9.2.2.xlsx
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,7 +899,7 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.25">
+    <row r="1" spans="1:16" ht="38.25">
       <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
@@ -950,7 +950,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -996,8 +996,11 @@
       <c r="O4" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
@@ -1043,8 +1046,11 @@
       <c r="O5" s="28">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="28">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1090,8 +1096,11 @@
       <c r="O6" s="27">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="27">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1137,8 +1146,11 @@
       <c r="O7" s="27">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1184,8 +1196,11 @@
       <c r="O8" s="27">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="27">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1231,8 +1246,11 @@
       <c r="O9" s="27">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="27">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -1278,8 +1296,11 @@
       <c r="O10" s="27">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1325,8 +1346,11 @@
       <c r="O11" s="27">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1372,8 +1396,11 @@
       <c r="O12" s="27">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="27">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1419,8 +1446,11 @@
       <c r="O13" s="27">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="26" customFormat="1">
+      <c r="P13" s="27">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="26" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1466,8 +1496,11 @@
       <c r="O14" s="30">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="30">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
@@ -1489,7 +1522,7 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
@@ -1535,8 +1568,11 @@
       <c r="O16" s="30">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+      <c r="P16" s="30">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1">
       <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
@@ -1582,8 +1618,11 @@
       <c r="O17" s="34">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="24">
+      <c r="P17" s="34">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="24">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="B21" s="22"/>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/9.2.2.xlsx
+++ b/ru/downloads/data-excel/9.2.2.xlsx
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,7 +899,7 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25">
+    <row r="1" spans="1:15" ht="38.25">
       <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
@@ -950,7 +950,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -996,11 +996,8 @@
       <c r="O4" s="6">
         <v>2021</v>
       </c>
-      <c r="P4" s="6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
@@ -1046,11 +1043,8 @@
       <c r="O5" s="28">
         <v>11.7</v>
       </c>
-      <c r="P5" s="28">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1096,11 +1090,8 @@
       <c r="O6" s="27">
         <v>16.399999999999999</v>
       </c>
-      <c r="P6" s="27">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1146,11 +1137,8 @@
       <c r="O7" s="27">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P7" s="27">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1196,11 +1184,8 @@
       <c r="O8" s="27">
         <v>12.1</v>
       </c>
-      <c r="P8" s="27">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1246,11 +1231,8 @@
       <c r="O9" s="27">
         <v>5.3</v>
       </c>
-      <c r="P9" s="27">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="15" t="s">
         <v>50</v>
       </c>
@@ -1296,11 +1278,8 @@
       <c r="O10" s="27">
         <v>4.7</v>
       </c>
-      <c r="P10" s="27">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1346,11 +1325,8 @@
       <c r="O11" s="27">
         <v>3.4</v>
       </c>
-      <c r="P11" s="27">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1396,11 +1372,8 @@
       <c r="O12" s="27">
         <v>18.8</v>
       </c>
-      <c r="P12" s="27">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1446,11 +1419,8 @@
       <c r="O13" s="27">
         <v>19.600000000000001</v>
       </c>
-      <c r="P13" s="27">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="26" customFormat="1">
+    </row>
+    <row r="14" spans="1:15" s="26" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -1496,11 +1466,8 @@
       <c r="O14" s="30">
         <v>6.9</v>
       </c>
-      <c r="P14" s="30">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
@@ -1522,7 +1489,7 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15">
       <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
@@ -1568,11 +1535,8 @@
       <c r="O16" s="30">
         <v>12.8</v>
       </c>
-      <c r="P16" s="30">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1">
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
@@ -1618,11 +1582,8 @@
       <c r="O17" s="34">
         <v>11</v>
       </c>
-      <c r="P17" s="34">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="24">
+    </row>
+    <row r="18" spans="1:15" ht="24">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -1633,7 +1594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:15">
       <c r="B21" s="22"/>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/9.2.2.xlsx
+++ b/ru/downloads/data-excel/9.2.2.xlsx
@@ -85,21 +85,6 @@
     <t>Ош ш.</t>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> До 2013г. - включая г. Ош.</t>
-    </r>
-  </si>
-  <si>
     <t>Batken oblast</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
   </si>
   <si>
     <t>9.2.2 Manufacturing employment as a proportion of total employment</t>
-  </si>
-  <si>
-    <t>9.2.2 Доля занятых в обрабатывающей промышленности по отношению к общей занятости</t>
   </si>
   <si>
     <t>(в процентах)</t>
@@ -221,6 +203,24 @@
       <t>1</t>
     </r>
   </si>
+  <si>
+    <t>9.2.2 Занятость в обрабатывающей промышленности в процентах от общей занятости</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> До 2013г. - включая г. Ош.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +231,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,13 +290,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <i/>
       <sz val="8"/>
       <color theme="1"/>
@@ -394,6 +387,28 @@
       <i/>
       <sz val="9"/>
       <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -452,22 +467,22 @@
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -502,41 +517,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,20 +555,29 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -884,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,15 +914,15 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25">
-      <c r="A1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:17" ht="38.25">
+      <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>42</v>
+      <c r="B1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -918,12 +933,12 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
+    <row r="2" spans="1:17">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>14</v>
@@ -937,8 +952,8 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A3" s="11"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
       <c r="D3" s="1"/>
@@ -950,7 +965,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -999,645 +1014,684 @@
       <c r="P4" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="19" t="s">
+      <c r="Q4" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="D5" s="25">
         <v>7.8</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>7.6</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>7.6</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>6.9</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>6.9</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="25">
         <v>7.4</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="25">
         <v>7.6</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="25">
         <v>10.1</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="25">
         <v>12</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="25">
         <v>11.8</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="25">
         <v>11.4</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="25">
         <v>11.7</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="25">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="15" t="s">
+      <c r="Q5" s="25">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="24">
         <v>6.4</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>6.4</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="24">
         <v>5.7</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <v>3.1</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="24">
         <v>3</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <v>2.4</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="24">
         <v>4.5</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="24">
         <v>6.9</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="24">
         <v>13.2</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="24">
         <v>14.7</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="24">
         <v>16.399999999999999</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="24">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="15" t="s">
+      <c r="Q6" s="24">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="C7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="24">
         <v>3.1</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <v>3.3</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="24">
         <v>4.3</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="24">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="24">
         <v>5.3</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="24">
         <v>5.5</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>5.4</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="24">
         <v>8.9</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="24">
         <v>15.3</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="24">
         <v>11</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="24">
         <v>9</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="24">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="24">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="15" t="s">
+      <c r="Q7" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="27">
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="24">
         <v>3.2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>3.7</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>4.2</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
         <v>4.7</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>5.3</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="24">
         <v>6.4</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="24">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="24">
         <v>10.6</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="24">
         <v>10.8</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="24">
         <v>12.1</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="24">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="15" t="s">
+      <c r="Q8" s="24">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="24">
         <v>2.4</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <v>1.6</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="24">
         <v>1.6</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="24">
         <v>1.4</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="24">
         <v>0.9</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <v>1.4</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="24">
         <v>3.9</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="24">
         <v>4.7</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="24">
         <v>5.3</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="24">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="15" t="s">
-        <v>50</v>
+      <c r="Q9" s="24">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>6.31</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <v>5.9</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="24">
         <v>5.4</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="24">
         <v>2.7</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="24">
         <v>2.8</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="24">
         <v>3.4</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="24">
         <v>3.3</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="24">
         <v>4.7</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="24">
         <v>6.7</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="24">
         <v>5.5</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="24">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="24">
         <v>4.7</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="24">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="15" t="s">
+      <c r="Q10" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="27">
+      <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="24">
         <v>2.6</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="24">
         <v>3.1</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="24">
         <v>3</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="24">
         <v>1.9</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="24">
         <v>2.1</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="24">
         <v>3.6</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="24">
         <v>3.8</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="24">
         <v>3.2</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="24">
         <v>3.4</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="24">
         <v>3.4</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="24">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="15" t="s">
+      <c r="Q11" s="24">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="24">
         <v>14.3</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <v>14.3</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="24">
         <v>14.8</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <v>13.7</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="24">
         <v>13.7</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="24">
         <v>15.1</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="24">
         <v>16</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="24">
         <v>21.6</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="24">
         <v>21.4</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="24">
         <v>20.3</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="24">
         <v>19.7</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="24">
         <v>18.8</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="24">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="16" t="s">
+      <c r="Q12" s="24">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="24">
+        <v>14.5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>13.6</v>
+      </c>
+      <c r="F13" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="G13" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="H13" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="I13" s="24">
+        <v>14.8</v>
+      </c>
+      <c r="J13" s="24">
+        <v>15.4</v>
+      </c>
+      <c r="K13" s="24">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L13" s="24">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M13" s="24">
+        <v>18.7</v>
+      </c>
+      <c r="N13" s="24">
+        <v>18.8</v>
+      </c>
+      <c r="O13" s="24">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P13" s="24">
+        <v>20.5</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="23" customFormat="1">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="27">
-        <v>14.5</v>
-      </c>
-      <c r="E13" s="27">
-        <v>13.6</v>
-      </c>
-      <c r="F13" s="27">
-        <v>12.8</v>
-      </c>
-      <c r="G13" s="27">
-        <v>13.5</v>
-      </c>
-      <c r="H13" s="27">
-        <v>13.5</v>
-      </c>
-      <c r="I13" s="27">
-        <v>14.8</v>
-      </c>
-      <c r="J13" s="27">
-        <v>15.4</v>
-      </c>
-      <c r="K13" s="27">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="L13" s="27">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M13" s="27">
-        <v>18.7</v>
-      </c>
-      <c r="N13" s="27">
-        <v>18.8</v>
-      </c>
-      <c r="O13" s="27">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="P13" s="27">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="26" customFormat="1">
-      <c r="A14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <v>7.5</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <v>7.8</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="27">
         <v>7.6</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="27">
         <v>8.5</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="27">
         <v>8.9</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="27">
         <v>6.8</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="27">
         <v>6.9</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="27">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="29" t="s">
+      <c r="Q14" s="27">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="20" t="s">
-        <v>33</v>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="27">
+        <v>34</v>
+      </c>
+      <c r="D16" s="24">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="30">
         <v>9</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="24">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="24">
         <v>8.9</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="24">
         <v>8.4</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <v>9.1</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="24">
         <v>11.3</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="24">
         <v>12.5</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="27">
         <v>12.5</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="27">
         <v>12.5</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="27">
         <v>12.8</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="27">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A17" s="21" t="s">
-        <v>34</v>
+      <c r="Q16" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A17" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="34">
+        <v>35</v>
+      </c>
+      <c r="D17" s="31">
         <v>6.7</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="32">
         <v>6.8</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="33">
         <v>6.6</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="31">
         <v>5.7</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="31">
         <v>5.6</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="31">
         <v>6.7</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="31">
         <v>6.7</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="31">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="31">
         <v>11.7</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="31">
         <v>11.4</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="31">
         <v>10.7</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="31">
         <v>11</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="31">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="24">
-      <c r="A18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="B21" s="22"/>
+      <c r="Q17" s="31">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="22.5">
+      <c r="A18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>